--- a/instance_generator/graphs/instance_generator_instances_instance_C4_out_heuristic/instance_generator_instances_instance_C4_out_heuristic.xlsx
+++ b/instance_generator/graphs/instance_generator_instances_instance_C4_out_heuristic/instance_generator_instances_instance_C4_out_heuristic.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_delay_app1</t>
+          <t>max_delay_app1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_jitter_app1</t>
+          <t>max_jitter_app1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_delay_app2</t>
+          <t>max_delay_app2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_max_jitter_app2</t>
+          <t>max_jitter_app2</t>
         </is>
       </c>
     </row>
